--- a/mike/CopyOftest_Excel.xlsx
+++ b/mike/CopyOftest_Excel.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\github\mike_test\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/github/wre/mike/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F881A985-E746-4D6C-ABB4-2CE7E98AE362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D655C79F-5239-6C4B-8EC6-A896EA2C1A2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0ED3C7A-6711-42BE-B156-EA1339966FC6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{E0ED3C7A-6711-42BE-B156-EA1339966FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Column1</t>
   </si>
@@ -43,6 +34,24 @@
   </si>
   <si>
     <t>Column3</t>
+  </si>
+  <si>
+    <t>columnS1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -394,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12579CCA-AE75-401A-AC58-3A148FC978F9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +421,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -423,8 +435,11 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -434,8 +449,11 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -445,19 +463,25 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -466,6 +490,9 @@
       </c>
       <c r="C6">
         <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/mike/CopyOftest_Excel.xlsx
+++ b/mike/CopyOftest_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\github\mike_test\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\github\wre\mike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F881A985-E746-4D6C-ABB4-2CE7E98AE362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F41867-BFBA-4458-9871-2BFA72D742B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0ED3C7A-6711-42BE-B156-EA1339966FC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Column1</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
   </si>
 </sst>
 </file>
@@ -394,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12579CCA-AE75-401A-AC58-3A148FC978F9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +415,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -423,8 +429,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -434,8 +443,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -445,8 +457,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -456,8 +471,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -465,6 +483,9 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
     </row>

--- a/mike/CopyOftest_Excel.xlsx
+++ b/mike/CopyOftest_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/github/wre/mike/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cbb745789442762/Documents/Github/wre/mike/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D655C79F-5239-6C4B-8EC6-A896EA2C1A2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D655C79F-5239-6C4B-8EC6-A896EA2C1A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D496222-AD5A-48C0-9B60-6803F9BDC5C2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{E0ED3C7A-6711-42BE-B156-EA1339966FC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0ED3C7A-6711-42BE-B156-EA1339966FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Column1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -403,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12579CCA-AE75-401A-AC58-3A148FC978F9}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -439,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -453,7 +456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -467,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -481,7 +484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -493,6 +496,20 @@
       </c>
       <c r="D6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
